--- a/LF/TAS/Benin/bj_lf_tas2_6_fts_result_202006.xlsx
+++ b/LF/TAS/Benin/bj_lf_tas2_6_fts_result_202006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14399984-AD89-494A-A41C-520E1C204EB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4207BEE6-792A-4C59-A3C5-2EDE02C8E1E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -428,9 +428,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>Invalid includes testing errors and insufficient blood</t>
-  </si>
-  <si>
     <t>Invalide comprend les erreurs de test et le sang insuffisant</t>
   </si>
   <si>
@@ -446,12 +443,6 @@
     <t>Le résultat final de ce participant est: ${d_final_result}</t>
   </si>
   <si>
-    <t>Entrer le code de l'école</t>
-  </si>
-  <si>
-    <t>Répéter le code de l'école</t>
-  </si>
-  <si>
     <t>Le code a trois chiffre associé à chaque école</t>
   </si>
   <si>
@@ -470,9 +461,6 @@
     <t>d_cluster_id</t>
   </si>
   <si>
-    <t>Sélectionner votre école</t>
-  </si>
-  <si>
     <t>Select your commune</t>
   </si>
   <si>
@@ -480,9 +468,6 @@
   </si>
   <si>
     <t>d_commune</t>
-  </si>
-  <si>
-    <t>bj_lf_tas2_3_fts_result_202010_v3</t>
   </si>
   <si>
     <t xml:space="preserve">${d_result1} = 'Invalide' </t>
@@ -591,13 +576,28 @@
     <t>selected(${d_why_invalid3},'Other')</t>
   </si>
   <si>
-    <t>6. Benin - TAS2 FL FTS Résultat (Septembre 2020) V3</t>
-  </si>
-  <si>
     <t>Le numéro du particiapnt doit être le même</t>
   </si>
   <si>
     <t>The number must be the same</t>
+  </si>
+  <si>
+    <t>Sélectionner l'unité d'évaluation</t>
+  </si>
+  <si>
+    <t>Sélectionner l'école</t>
+  </si>
+  <si>
+    <t>Sélectionner le code de l'école</t>
+  </si>
+  <si>
+    <t>Invalide inclut les erreurs de test et le sang insuffisant</t>
+  </si>
+  <si>
+    <t>bj_lf_tas2_3_fts_result_202010_v3_1</t>
+  </si>
+  <si>
+    <t>6. Benin - TAS2 FL FTS Résultat (Octobre 2020) V4</t>
   </si>
 </sst>
 </file>
@@ -1136,11 +1136,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1163,7 @@
     <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>22</v>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="18" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="19"/>
@@ -1287,14 +1287,14 @@
         <v>26</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="19"/>
@@ -1315,14 +1315,14 @@
         <v>26</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="18" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="19"/>
@@ -1343,17 +1343,17 @@
         <v>26</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="18" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="23"/>
@@ -1373,24 +1373,24 @@
         <v>23</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F7" s="39"/>
       <c r="H7" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M7" s="39" t="s">
         <v>89</v>
@@ -1401,24 +1401,24 @@
         <v>23</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F8" s="39"/>
       <c r="H8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>181</v>
-      </c>
       <c r="J8" s="27" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M8" s="39" t="s">
         <v>89</v>
@@ -1429,20 +1429,20 @@
         <v>26</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F9" s="39"/>
       <c r="I9" s="26"/>
       <c r="J9" s="27"/>
       <c r="L9" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M9" s="39" t="s">
         <v>89</v>
@@ -1496,7 +1496,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -1531,7 +1531,7 @@
       <c r="I12" s="31"/>
       <c r="J12" s="27"/>
       <c r="K12" s="30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="24" t="s">
@@ -1563,7 +1563,7 @@
       <c r="I13" s="31"/>
       <c r="J13" s="27"/>
       <c r="K13" s="30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="24" t="s">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="14"/>
@@ -1619,7 +1619,7 @@
       <c r="I15" s="31"/>
       <c r="J15" s="27"/>
       <c r="K15" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="24"/>
@@ -1647,7 +1647,7 @@
       <c r="I16" s="31"/>
       <c r="J16" s="27"/>
       <c r="K16" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="24" t="s">
@@ -1674,14 +1674,14 @@
         <v>63</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="34"/>
       <c r="J17" s="35"/>
       <c r="K17" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L17" s="32"/>
       <c r="M17" s="24" t="s">
@@ -1713,7 +1713,7 @@
       <c r="I18" s="34"/>
       <c r="J18" s="35"/>
       <c r="K18" s="30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L18" s="32"/>
       <c r="M18" s="24" t="s">
@@ -1745,7 +1745,7 @@
       <c r="I19" s="34"/>
       <c r="J19" s="35"/>
       <c r="K19" s="30" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L19" s="32"/>
       <c r="M19" s="24" t="s">
@@ -1771,7 +1771,7 @@
       <c r="I20" s="34"/>
       <c r="J20" s="35"/>
       <c r="K20" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>114</v>
@@ -1795,7 +1795,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="14"/>
@@ -1803,7 +1803,7 @@
       <c r="I21" s="31"/>
       <c r="J21" s="27"/>
       <c r="K21" s="30" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="24"/>
@@ -1831,7 +1831,7 @@
       <c r="I22" s="31"/>
       <c r="J22" s="27"/>
       <c r="K22" s="30" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="24" t="s">
@@ -1858,14 +1858,14 @@
         <v>112</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="34"/>
       <c r="J23" s="35"/>
       <c r="K23" s="30" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="24" t="s">
@@ -1897,7 +1897,7 @@
       <c r="I24" s="34"/>
       <c r="J24" s="35"/>
       <c r="K24" s="30" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="24" t="s">
@@ -1927,7 +1927,7 @@
       <c r="I25" s="34"/>
       <c r="J25" s="35"/>
       <c r="K25" s="30" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L25" s="32"/>
       <c r="M25" s="24" t="s">
@@ -1971,7 +1971,7 @@
       <c r="I27" s="34"/>
       <c r="J27" s="35"/>
       <c r="K27" s="30" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>116</v>
@@ -2000,7 +2000,7 @@
         <v>85</v>
       </c>
       <c r="L28" s="37" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="32"/>
@@ -2055,7 +2055,7 @@
       <c r="I30" s="34"/>
       <c r="J30" s="35"/>
       <c r="K30" s="30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L30" s="32"/>
       <c r="M30" s="32"/>
@@ -2094,7 +2094,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="34"/>
@@ -2116,7 +2116,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="34"/>
@@ -2234,13 +2234,13 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2353,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C2">
         <v>20201006</v>
